--- a/app_output/list_of_apts_with_no_email.xlsx
+++ b/app_output/list_of_apts_with_no_email.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="7800" yWindow="3020" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Apts With No Email Address" sheetId="1" r:id="rId4"/>
+    <sheet name="aweber_emails_not_in_mds.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="589">
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Floor Number</t>
-  </si>
-  <si>
-    <t>Apt Line</t>
-  </si>
-  <si>
-    <t>Apt Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="588">
+  <si>
+    <t>building_id</t>
+  </si>
+  <si>
+    <t>floor_number</t>
+  </si>
+  <si>
+    <t>apt_line</t>
+  </si>
+  <si>
+    <t>apartment_name</t>
   </si>
   <si>
     <t>E</t>
@@ -194,9 +198,6 @@
     <t>10-10C</t>
   </si>
   <si>
-    <t>10-10E</t>
-  </si>
-  <si>
     <t>10-10F</t>
   </si>
   <si>
@@ -473,6 +474,9 @@
     <t>2B-16F</t>
   </si>
   <si>
+    <t>2B-17E</t>
+  </si>
+  <si>
     <t>2B-17G</t>
   </si>
   <si>
@@ -503,9 +507,6 @@
     <t>3A</t>
   </si>
   <si>
-    <t>3A-1C</t>
-  </si>
-  <si>
     <t>3A-1E</t>
   </si>
   <si>
@@ -695,6 +696,9 @@
     <t>3B-9E</t>
   </si>
   <si>
+    <t>3B-10F</t>
+  </si>
+  <si>
     <t>3B-10G</t>
   </si>
   <si>
@@ -722,6 +726,9 @@
     <t>3B-13G</t>
   </si>
   <si>
+    <t>3B-15C</t>
+  </si>
+  <si>
     <t>3B-15H</t>
   </si>
   <si>
@@ -779,9 +786,6 @@
     <t>4-5C</t>
   </si>
   <si>
-    <t>4-5J</t>
-  </si>
-  <si>
     <t>4-6B</t>
   </si>
   <si>
@@ -860,9 +864,6 @@
     <t>5-1C</t>
   </si>
   <si>
-    <t>5-1G</t>
-  </si>
-  <si>
     <t>5-1J</t>
   </si>
   <si>
@@ -1127,6 +1128,9 @@
     <t>6B-6C</t>
   </si>
   <si>
+    <t>6B-6D</t>
+  </si>
+  <si>
     <t>6B-8E</t>
   </si>
   <si>
@@ -1157,6 +1161,9 @@
     <t>6B-13C</t>
   </si>
   <si>
+    <t>6B-13E</t>
+  </si>
+  <si>
     <t>6B-14D</t>
   </si>
   <si>
@@ -1256,9 +1263,6 @@
     <t>7A-12E</t>
   </si>
   <si>
-    <t>7A-13J</t>
-  </si>
-  <si>
     <t>7A-14H</t>
   </si>
   <si>
@@ -1271,6 +1275,9 @@
     <t>7A-15F</t>
   </si>
   <si>
+    <t>7A-16E</t>
+  </si>
+  <si>
     <t>7A-17C</t>
   </si>
   <si>
@@ -1412,6 +1419,9 @@
     <t>8A-2F</t>
   </si>
   <si>
+    <t>8A-2J</t>
+  </si>
+  <si>
     <t>8A-3F</t>
   </si>
   <si>
@@ -1451,9 +1461,6 @@
     <t>8A-10B</t>
   </si>
   <si>
-    <t>8A-10C</t>
-  </si>
-  <si>
     <t>8A-11C</t>
   </si>
   <si>
@@ -1610,9 +1617,6 @@
     <t>8B-12G</t>
   </si>
   <si>
-    <t>8B-13E</t>
-  </si>
-  <si>
     <t>8B-14A</t>
   </si>
   <si>
@@ -1692,9 +1696,6 @@
   </si>
   <si>
     <t>9-4H</t>
-  </si>
-  <si>
-    <t>9-5H</t>
   </si>
   <si>
     <t>9-6J</t>
@@ -1787,64 +1788,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAE9DE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -1993,20 +1974,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2128,49 +2105,73 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F567"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.567383" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>10</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>10</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>10</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>10</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>10</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>10</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>10</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>10</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>10</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>10</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>10</v>
       </c>
@@ -2822,27 +2823,27 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>10</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2850,27 +2851,27 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>10</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>10</v>
       </c>
@@ -2878,46 +2879,46 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>10</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>10</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>10</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -2926,35 +2927,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>10</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>10</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>10</v>
       </c>
@@ -2962,1135 +2963,1135 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>10</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>10</v>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>71</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82">
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83">
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85">
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86">
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B91">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B94">
         <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95">
         <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B97">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98">
         <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
         <v>20</v>
-      </c>
-      <c r="C99" t="s">
-        <v>4</v>
       </c>
       <c r="D99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B100">
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B101">
         <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B102">
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>116</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B125">
         <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B126">
         <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B127">
         <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128">
         <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B129">
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
         <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132">
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B134">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B135">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B136">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B137">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B138">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B139">
         <v>17</v>
@@ -4102,9 +4103,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B140">
         <v>18</v>
@@ -4116,9 +4117,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B141">
         <v>18</v>
@@ -4130,9 +4131,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B142">
         <v>19</v>
@@ -4144,9 +4145,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B143">
         <v>20</v>
@@ -4158,9 +4159,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B144">
         <v>20</v>
@@ -4172,9 +4173,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B145">
         <v>20</v>
@@ -4186,9 +4187,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B146">
         <v>20</v>
@@ -4200,9 +4201,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B147">
         <v>21</v>
@@ -4214,7 +4215,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -4222,27 +4223,27 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -4250,13 +4251,13 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -4264,13 +4265,13 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -4278,13 +4279,13 @@
         <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -4292,27 +4293,27 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>161</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -4320,27 +4321,27 @@
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>161</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -4348,13 +4349,13 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -4362,41 +4363,41 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>161</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D160" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -4404,13 +4405,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D161" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4418,27 +4419,27 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -4446,27 +4447,27 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>161</v>
       </c>
       <c r="B165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -4474,13 +4475,13 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -4488,27 +4489,27 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>161</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>161</v>
       </c>
@@ -4516,27 +4517,27 @@
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>161</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>161</v>
       </c>
@@ -4544,13 +4545,13 @@
         <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>161</v>
       </c>
@@ -4558,27 +4559,27 @@
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D172" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>161</v>
       </c>
       <c r="B173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D173" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -4586,27 +4587,27 @@
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>161</v>
       </c>
       <c r="B175">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D175" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>161</v>
       </c>
@@ -4614,13 +4615,13 @@
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>161</v>
       </c>
@@ -4628,27 +4629,27 @@
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>161</v>
       </c>
       <c r="B178">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>161</v>
       </c>
@@ -4656,13 +4657,13 @@
         <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>161</v>
       </c>
@@ -4670,60 +4671,60 @@
         <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D180" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>161</v>
       </c>
       <c r="B181">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D181" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>161</v>
       </c>
       <c r="B182">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>161</v>
       </c>
       <c r="B183">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D183" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>161</v>
       </c>
       <c r="B184">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -4732,7 +4733,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>161</v>
       </c>
@@ -4740,242 +4741,242 @@
         <v>20</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D185" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>161</v>
       </c>
       <c r="B186">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B187">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" t="s">
-        <v>202</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D188" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D189" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D191" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D194" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B196">
         <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198">
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D199" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200">
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D200" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D201" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
@@ -4984,121 +4985,121 @@
         <v>217</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203">
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D203" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204">
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B205">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B206">
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B207">
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D207" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B208">
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B209">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D209" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B210">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211">
         <v>10</v>
@@ -5110,9 +5111,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B212">
         <v>10</v>
@@ -5124,9 +5125,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B213">
         <v>11</v>
@@ -5138,9 +5139,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B214">
         <v>11</v>
@@ -5152,9 +5153,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B215">
         <v>11</v>
@@ -5166,9 +5167,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B216">
         <v>11</v>
@@ -5180,9 +5181,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B217">
         <v>12</v>
@@ -5194,9 +5195,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B218">
         <v>13</v>
@@ -5208,9 +5209,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B219">
         <v>13</v>
@@ -5222,40 +5223,40 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B220">
         <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D220" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B221">
         <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D221" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B222">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -5264,63 +5265,63 @@
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B223">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D223" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B224">
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D224" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B225">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D225" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>4</v>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>201</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D226" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>4</v>
       </c>
@@ -5328,13 +5329,13 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>4</v>
       </c>
@@ -5342,27 +5343,27 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D228" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>4</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D229" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>4</v>
       </c>
@@ -5370,13 +5371,13 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D230" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>4</v>
       </c>
@@ -5384,13 +5385,13 @@
         <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D231" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>4</v>
       </c>
@@ -5398,27 +5399,27 @@
         <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D232" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>4</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D233" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:4">
       <c r="A234">
         <v>4</v>
       </c>
@@ -5426,27 +5427,27 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>4</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D235" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>4</v>
       </c>
@@ -5454,13 +5455,13 @@
         <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D236" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>4</v>
       </c>
@@ -5468,27 +5469,27 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D237" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>4</v>
       </c>
       <c r="B238">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D238" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>4</v>
       </c>
@@ -5496,13 +5497,13 @@
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D239" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>4</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>4</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>4</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>4</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>4</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:4">
       <c r="A245">
         <v>4</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:4">
       <c r="A246">
         <v>4</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:4">
       <c r="A247">
         <v>4</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:4">
       <c r="A248">
         <v>4</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:4">
       <c r="A249">
         <v>4</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:4">
       <c r="A250">
         <v>4</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:4">
       <c r="A251">
         <v>4</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:4">
       <c r="A252">
         <v>4</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:4">
       <c r="A253">
         <v>4</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:4">
       <c r="A254">
         <v>4</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:4">
       <c r="A255">
         <v>4</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:4">
       <c r="A256">
         <v>4</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:4">
       <c r="A257">
         <v>4</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:4">
       <c r="A258">
         <v>4</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:4">
       <c r="A259">
         <v>4</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:4">
       <c r="A260">
         <v>4</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:4">
       <c r="A261">
         <v>4</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:4">
       <c r="A262">
         <v>4</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:4">
       <c r="A263">
         <v>4</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:4">
       <c r="A264">
         <v>4</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:4">
       <c r="A265">
         <v>5</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:4">
       <c r="A266">
         <v>5</v>
       </c>
@@ -5874,46 +5875,46 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D266" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:4">
       <c r="A267">
         <v>5</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:4">
       <c r="A268">
         <v>5</v>
       </c>
       <c r="B268">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D268" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:4">
       <c r="A269">
         <v>5</v>
       </c>
       <c r="B269">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -5922,7 +5923,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:4">
       <c r="A270">
         <v>5</v>
       </c>
@@ -5930,13 +5931,13 @@
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D270" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:4">
       <c r="A271">
         <v>5</v>
       </c>
@@ -5944,27 +5945,27 @@
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D271" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:4">
       <c r="A272">
         <v>5</v>
       </c>
       <c r="B272">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:4">
       <c r="A273">
         <v>5</v>
       </c>
@@ -5972,27 +5973,27 @@
         <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D273" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:4">
       <c r="A274">
         <v>5</v>
       </c>
       <c r="B274">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
         <v>6</v>
-      </c>
-      <c r="C274" t="s">
-        <v>14</v>
       </c>
       <c r="D274" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:4">
       <c r="A275">
         <v>5</v>
       </c>
@@ -6000,13 +6001,13 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D275" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:4">
       <c r="A276">
         <v>5</v>
       </c>
@@ -6014,13 +6015,13 @@
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D276" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:4">
       <c r="A277">
         <v>5</v>
       </c>
@@ -6028,41 +6029,41 @@
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D277" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:4">
       <c r="A278">
         <v>5</v>
       </c>
       <c r="B278">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D278" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:4">
       <c r="A279">
         <v>5</v>
       </c>
       <c r="B279">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D279" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:4">
       <c r="A280">
         <v>5</v>
       </c>
@@ -6070,27 +6071,27 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D280" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:4">
       <c r="A281">
         <v>5</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D281" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:4">
       <c r="A282">
         <v>5</v>
       </c>
@@ -6098,13 +6099,13 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D282" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:4">
       <c r="A283">
         <v>5</v>
       </c>
@@ -6112,27 +6113,27 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D283" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:4">
       <c r="A284">
         <v>5</v>
       </c>
       <c r="B284">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D284" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:4">
       <c r="A285">
         <v>5</v>
       </c>
@@ -6140,13 +6141,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:4">
       <c r="A286">
         <v>5</v>
       </c>
@@ -6154,27 +6155,27 @@
         <v>11</v>
       </c>
       <c r="C286" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D286" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:4">
       <c r="A287">
         <v>5</v>
       </c>
       <c r="B287">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C287" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D287" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:4">
       <c r="A288">
         <v>5</v>
       </c>
@@ -6182,13 +6183,13 @@
         <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D288" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:4">
       <c r="A289">
         <v>5</v>
       </c>
@@ -6196,13 +6197,13 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D289" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:4">
       <c r="A290">
         <v>5</v>
       </c>
@@ -6210,55 +6211,55 @@
         <v>12</v>
       </c>
       <c r="C290" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D290" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:4">
       <c r="A291">
         <v>5</v>
       </c>
       <c r="B291">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D291" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:4">
       <c r="A292">
         <v>5</v>
       </c>
       <c r="B292">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D292" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:4">
       <c r="A293">
         <v>5</v>
       </c>
       <c r="B293">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D293" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:4">
       <c r="A294">
         <v>5</v>
       </c>
@@ -6266,13 +6267,13 @@
         <v>15</v>
       </c>
       <c r="C294" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D294" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:4">
       <c r="A295">
         <v>5</v>
       </c>
@@ -6280,27 +6281,27 @@
         <v>15</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D295" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:4">
       <c r="A296">
         <v>5</v>
       </c>
       <c r="B296">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C296" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D296" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:4">
       <c r="A297">
         <v>5</v>
       </c>
@@ -6308,55 +6309,55 @@
         <v>16</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D297" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:4">
       <c r="A298">
         <v>5</v>
       </c>
       <c r="B298">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C298" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D298" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:4">
       <c r="A299">
         <v>5</v>
       </c>
       <c r="B299">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D299" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:4">
       <c r="A300">
         <v>5</v>
       </c>
       <c r="B300">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C300" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:4">
       <c r="A301">
         <v>5</v>
       </c>
@@ -6364,13 +6365,13 @@
         <v>19</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D301" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:4">
       <c r="A302">
         <v>5</v>
       </c>
@@ -6378,284 +6379,284 @@
         <v>19</v>
       </c>
       <c r="C302" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D302" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
-      <c r="A303">
-        <v>5</v>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>318</v>
       </c>
       <c r="B303">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D303" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" t="s">
-        <v>319</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D304" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D305" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B306">
         <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D306" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B307">
         <v>2</v>
       </c>
       <c r="C307" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D307" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C308" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D308" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B309">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D309" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B310">
         <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D310" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B311">
         <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D311" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B312">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C312" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D312" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B313">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D313" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B314">
         <v>7</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D314" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B315">
         <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D315" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B316">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C316" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D316" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B317">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D317" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D318" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D319" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C320" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D320" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B321">
         <v>12</v>
       </c>
       <c r="C321" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D321" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C322" t="s">
         <v>12</v>
@@ -6664,429 +6665,429 @@
         <v>338</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B323">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D323" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B324">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D324" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B325">
         <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D325" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B326">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C326" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D326" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B327">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C327" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D327" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B328">
         <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D328" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B329">
         <v>17</v>
       </c>
       <c r="C329" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D329" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B330">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C330" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D330" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B331">
         <v>18</v>
       </c>
       <c r="C331" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D331" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B332">
         <v>18</v>
       </c>
       <c r="C332" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D332" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B333">
         <v>18</v>
       </c>
       <c r="C333" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D333" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B334">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D334" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B335">
         <v>19</v>
       </c>
       <c r="C335" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D335" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B336">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D336" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B337">
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D337" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B338">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D338" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" t="s">
-        <v>355</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D339" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D340" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B341">
         <v>2</v>
       </c>
       <c r="C341" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D341" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B342">
         <v>2</v>
       </c>
       <c r="C342" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D342" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B343">
         <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D343" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D344" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B345">
         <v>3</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D345" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B346">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D346" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B347">
         <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D347" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B348">
         <v>4</v>
       </c>
       <c r="C348" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D348" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B349">
         <v>4</v>
       </c>
       <c r="C349" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D349" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B350">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D350" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C351" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D351" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B352">
         <v>6</v>
       </c>
       <c r="C352" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D352" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B353">
         <v>8</v>
@@ -7098,9 +7099,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B354">
         <v>8</v>
@@ -7112,9 +7113,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355">
         <v>9</v>
@@ -7126,9 +7127,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356">
         <v>9</v>
@@ -7140,9 +7141,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B357">
         <v>10</v>
@@ -7154,9 +7155,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B358">
         <v>10</v>
@@ -7168,9 +7169,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B359">
         <v>11</v>
@@ -7182,9 +7183,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B360">
         <v>12</v>
@@ -7196,9 +7197,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B361">
         <v>12</v>
@@ -7210,9 +7211,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B362">
         <v>13</v>
@@ -7224,180 +7225,180 @@
         <v>379</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B363">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C363" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D363" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B364">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C364" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D364" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B365">
         <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D365" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B366">
         <v>15</v>
       </c>
       <c r="C366" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D366" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B367">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D367" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B368">
         <v>16</v>
       </c>
       <c r="C368" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D368" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B369">
         <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D369" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B370">
         <v>16</v>
       </c>
       <c r="C370" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D370" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B371">
         <v>16</v>
       </c>
       <c r="C371" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D371" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B372">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C372" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D372" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B373">
         <v>17</v>
       </c>
       <c r="C373" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D373" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B374">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C374" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D374" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B375">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -7406,166 +7407,166 @@
         <v>392</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B376">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C376" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D376" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B377">
         <v>20</v>
       </c>
       <c r="C377" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D377" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B378">
         <v>20</v>
       </c>
       <c r="C378" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D378" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B379">
         <v>20</v>
       </c>
       <c r="C379" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D379" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B380">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C380" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D380" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
+        <v>354</v>
+      </c>
+      <c r="B381">
+        <v>21</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
         <v>398</v>
       </c>
-      <c r="B381">
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>399</v>
+      </c>
+      <c r="B382">
         <v>1</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C382" t="s">
         <v>20</v>
-      </c>
-      <c r="D381" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" t="s">
-        <v>398</v>
-      </c>
-      <c r="B382">
-        <v>3</v>
-      </c>
-      <c r="C382" t="s">
-        <v>29</v>
       </c>
       <c r="D382" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B383">
         <v>3</v>
       </c>
       <c r="C383" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D383" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C384" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D384" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C385" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D385" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B386">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C386" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D386" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B387">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C387" t="s">
         <v>4</v>
@@ -7574,121 +7575,121 @@
         <v>405</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B388">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C388" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D388" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B389">
         <v>9</v>
       </c>
       <c r="C389" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D389" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B390">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D390" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B391">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C391" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D391" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B392">
         <v>11</v>
       </c>
       <c r="C392" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D392" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B393">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C393" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D393" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B394">
         <v>12</v>
       </c>
       <c r="C394" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D394" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B395">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C395" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D395" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B396">
         <v>14</v>
@@ -7700,9 +7701,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B397">
         <v>14</v>
@@ -7714,9 +7715,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B398">
         <v>15</v>
@@ -7728,9 +7729,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B399">
         <v>15</v>
@@ -7742,432 +7743,432 @@
         <v>417</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C400" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D400" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B401">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C401" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D401" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B402">
         <v>19</v>
       </c>
       <c r="C402" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D402" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B403">
         <v>19</v>
       </c>
       <c r="C403" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D403" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B404">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C404" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D404" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B405">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C405" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D405" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
+        <v>399</v>
+      </c>
+      <c r="B406">
+        <v>21</v>
+      </c>
+      <c r="C406" t="s">
+        <v>26</v>
+      </c>
+      <c r="D406" t="s">
         <v>424</v>
       </c>
-      <c r="B406">
-        <v>2</v>
-      </c>
-      <c r="C406" t="s">
-        <v>29</v>
-      </c>
-      <c r="D406" t="s">
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
-      <c r="A407" t="s">
-        <v>424</v>
       </c>
       <c r="B407">
         <v>2</v>
       </c>
       <c r="C407" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D407" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C408" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D408" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B409">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C409" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D409" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B410">
         <v>4</v>
       </c>
       <c r="C410" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D410" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B411">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C411" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D411" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B412">
         <v>5</v>
       </c>
       <c r="C412" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D412" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B413">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
         <v>6</v>
-      </c>
-      <c r="C413" t="s">
-        <v>26</v>
       </c>
       <c r="D413" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B414">
         <v>6</v>
       </c>
       <c r="C414" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D414" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B415">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C415" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D415" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B416">
         <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D416" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B417">
         <v>7</v>
       </c>
       <c r="C417" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D417" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B418">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C418" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D418" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B419">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C419" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D419" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B420">
         <v>9</v>
       </c>
       <c r="C420" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D420" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B421">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C421" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D421" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B422">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C422" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D422" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B423">
         <v>11</v>
       </c>
       <c r="C423" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D423" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B424">
         <v>11</v>
       </c>
       <c r="C424" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D424" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B425">
         <v>11</v>
       </c>
       <c r="C425" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D425" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C426" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D426" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B427">
         <v>12</v>
       </c>
       <c r="C427" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D427" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B428">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C428" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D428" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B429">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C429" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D429" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B430">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C430" t="s">
         <v>14</v>
@@ -8176,208 +8177,208 @@
         <v>449</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B431">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C431" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D431" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B432">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C432" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D432" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B433">
         <v>17</v>
       </c>
       <c r="C433" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D433" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B434">
         <v>17</v>
       </c>
       <c r="C434" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D434" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B435">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C435" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D435" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B436">
         <v>18</v>
       </c>
       <c r="C436" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D436" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B437">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C437" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D437" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B438">
         <v>19</v>
       </c>
       <c r="C438" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D438" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B439">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C439" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D439" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B440">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C440" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D440" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
+        <v>425</v>
+      </c>
+      <c r="B441">
+        <v>21</v>
+      </c>
+      <c r="C441" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" t="s">
         <v>460</v>
       </c>
-      <c r="B441">
-        <v>1</v>
-      </c>
-      <c r="C441" t="s">
-        <v>20</v>
-      </c>
-      <c r="D441" t="s">
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" t="s">
-        <v>460</v>
       </c>
       <c r="B442">
         <v>1</v>
       </c>
       <c r="C442" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D442" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C443" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D443" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B444">
         <v>2</v>
       </c>
       <c r="C444" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D444" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C445" t="s">
         <v>10</v>
@@ -8386,166 +8387,166 @@
         <v>465</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B446">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C446" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D446" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B447">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C447" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D447" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B448">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C448" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D448" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B449">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C449" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D449" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B450">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C450" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D450" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B451">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C451" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D451" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B452">
         <v>6</v>
       </c>
       <c r="C452" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D452" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B453">
         <v>6</v>
       </c>
       <c r="C453" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D453" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B454">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C454" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D454" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B455">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C455" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D455" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B456">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C456" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D456" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B457">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C457" t="s">
         <v>20</v>
@@ -8554,82 +8555,82 @@
         <v>477</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B458">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C458" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D458" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B459">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C459" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D459" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B460">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C460" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D460" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B461">
         <v>12</v>
       </c>
       <c r="C461" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D461" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462">
         <v>12</v>
       </c>
       <c r="C462" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D462" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B463">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C463" t="s">
         <v>26</v>
@@ -8638,12 +8639,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B464">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C464" t="s">
         <v>26</v>
@@ -8652,653 +8653,653 @@
         <v>484</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B465">
         <v>14</v>
       </c>
       <c r="C465" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D465" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B466">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C466" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D466" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B467">
         <v>15</v>
       </c>
       <c r="C467" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D467" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B468">
         <v>15</v>
       </c>
       <c r="C468" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D468" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B469">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C469" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D469" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B470">
         <v>16</v>
       </c>
       <c r="C470" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D470" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B471">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C471" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D471" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B472">
         <v>17</v>
       </c>
       <c r="C472" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D472" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B473">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C473" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D473" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B474">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C474" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D474" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B475">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C475" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D475" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B476">
         <v>20</v>
       </c>
       <c r="C476" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D476" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B477">
         <v>20</v>
       </c>
       <c r="C477" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D477" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B478">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C478" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D478" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B479">
         <v>21</v>
       </c>
       <c r="C479" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D479" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B480">
         <v>21</v>
       </c>
       <c r="C480" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D480" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
+        <v>461</v>
+      </c>
+      <c r="B481">
+        <v>21</v>
+      </c>
+      <c r="C481" t="s">
+        <v>12</v>
+      </c>
+      <c r="D481" t="s">
         <v>501</v>
       </c>
-      <c r="B481">
-        <v>1</v>
-      </c>
-      <c r="C481" t="s">
-        <v>29</v>
-      </c>
-      <c r="D481" t="s">
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6">
-      <c r="A482" t="s">
-        <v>501</v>
       </c>
       <c r="B482">
         <v>1</v>
       </c>
       <c r="C482" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D482" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C483" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D483" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B484">
         <v>2</v>
       </c>
       <c r="C484" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D484" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C485" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D485" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B486">
         <v>3</v>
       </c>
       <c r="C486" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D486" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B487">
         <v>3</v>
       </c>
       <c r="C487" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D487" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B488">
         <v>3</v>
       </c>
       <c r="C488" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D488" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B489">
         <v>3</v>
       </c>
       <c r="C489" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D489" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B490">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C490" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D490" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B491">
         <v>4</v>
       </c>
       <c r="C491" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D491" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B492">
         <v>4</v>
       </c>
       <c r="C492" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D492" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B493">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C493" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D493" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B494">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C494" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D494" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B495">
         <v>6</v>
       </c>
       <c r="C495" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D495" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B496">
         <v>6</v>
       </c>
       <c r="C496" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D496" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B497">
         <v>6</v>
       </c>
       <c r="C497" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D497" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B498">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C498" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D498" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B499">
         <v>7</v>
       </c>
       <c r="C499" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D499" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B500">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C500" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D500" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B501">
         <v>8</v>
       </c>
       <c r="C501" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D501" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B502">
         <v>8</v>
       </c>
       <c r="C502" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D502" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503">
         <v>8</v>
       </c>
       <c r="C503" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D503" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B504">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C504" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D504" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B505">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C505" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D505" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B506">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C506" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D506" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B507">
         <v>11</v>
       </c>
       <c r="C507" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D507" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B508">
         <v>11</v>
       </c>
       <c r="C508" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D508" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B509">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C509" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D509" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B510">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C510" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D510" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B511">
         <v>14</v>
@@ -9310,9 +9311,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B512">
         <v>14</v>
@@ -9324,9 +9325,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B513">
         <v>16</v>
@@ -9338,9 +9339,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B514">
         <v>17</v>
@@ -9352,9 +9353,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B515">
         <v>17</v>
@@ -9366,9 +9367,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B516">
         <v>17</v>
@@ -9380,9 +9381,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B517">
         <v>17</v>
@@ -9394,9 +9395,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B518">
         <v>18</v>
@@ -9408,9 +9409,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B519">
         <v>18</v>
@@ -9422,9 +9423,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B520">
         <v>18</v>
@@ -9436,9 +9437,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B521">
         <v>18</v>
@@ -9450,9 +9451,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B522">
         <v>19</v>
@@ -9464,9 +9465,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B523">
         <v>19</v>
@@ -9478,9 +9479,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B524">
         <v>20</v>
@@ -9492,9 +9493,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B525">
         <v>20</v>
@@ -9506,9 +9507,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B526">
         <v>21</v>
@@ -9520,9 +9521,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B527">
         <v>21</v>
@@ -9534,9 +9535,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B528">
         <v>21</v>
@@ -9548,9 +9549,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B529">
         <v>21</v>
@@ -9562,7 +9563,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:4">
       <c r="A530">
         <v>9</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:4">
       <c r="A531">
         <v>9</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:4">
       <c r="A532">
         <v>9</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:4">
       <c r="A533">
         <v>9</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:4">
       <c r="A534">
         <v>9</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:4">
       <c r="A535">
         <v>9</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:4">
       <c r="A536">
         <v>9</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:4">
       <c r="A537">
         <v>9</v>
       </c>
@@ -9674,35 +9675,35 @@
         <v>558</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:4">
       <c r="A538">
         <v>9</v>
       </c>
       <c r="B538">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C538" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D538" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:4">
       <c r="A539">
         <v>9</v>
       </c>
       <c r="B539">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C539" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D539" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:4">
       <c r="A540">
         <v>9</v>
       </c>
@@ -9710,13 +9711,13 @@
         <v>7</v>
       </c>
       <c r="C540" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D540" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:4">
       <c r="A541">
         <v>9</v>
       </c>
@@ -9724,27 +9725,27 @@
         <v>7</v>
       </c>
       <c r="C541" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D541" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:4">
       <c r="A542">
         <v>9</v>
       </c>
       <c r="B542">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C542" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D542" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:4">
       <c r="A543">
         <v>9</v>
       </c>
@@ -9752,27 +9753,27 @@
         <v>8</v>
       </c>
       <c r="C543" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D543" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:4">
       <c r="A544">
         <v>9</v>
       </c>
       <c r="B544">
+        <v>9</v>
+      </c>
+      <c r="C544" t="s">
         <v>8</v>
-      </c>
-      <c r="C544" t="s">
-        <v>14</v>
       </c>
       <c r="D544" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:4">
       <c r="A545">
         <v>9</v>
       </c>
@@ -9780,13 +9781,13 @@
         <v>9</v>
       </c>
       <c r="C545" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D545" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:4">
       <c r="A546">
         <v>9</v>
       </c>
@@ -9794,27 +9795,27 @@
         <v>9</v>
       </c>
       <c r="C546" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D546" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:4">
       <c r="A547">
         <v>9</v>
       </c>
       <c r="B547">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C547" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D547" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:4">
       <c r="A548">
         <v>9</v>
       </c>
@@ -9822,13 +9823,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D548" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:4">
       <c r="A549">
         <v>9</v>
       </c>
@@ -9836,13 +9837,13 @@
         <v>10</v>
       </c>
       <c r="C549" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D549" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:4">
       <c r="A550">
         <v>9</v>
       </c>
@@ -9850,13 +9851,13 @@
         <v>10</v>
       </c>
       <c r="C550" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D550" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:4">
       <c r="A551">
         <v>9</v>
       </c>
@@ -9864,27 +9865,27 @@
         <v>10</v>
       </c>
       <c r="C551" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D551" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:4">
       <c r="A552">
         <v>9</v>
       </c>
       <c r="B552">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C552" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D552" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:4">
       <c r="A553">
         <v>9</v>
       </c>
@@ -9892,69 +9893,69 @@
         <v>11</v>
       </c>
       <c r="C553" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D553" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:4">
       <c r="A554">
         <v>9</v>
       </c>
       <c r="B554">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C554" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D554" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:4">
       <c r="A555">
         <v>9</v>
       </c>
       <c r="B555">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C555" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D555" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:4">
       <c r="A556">
         <v>9</v>
       </c>
       <c r="B556">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C556" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D556" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:4">
       <c r="A557">
         <v>9</v>
       </c>
       <c r="B557">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C557" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D557" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:4">
       <c r="A558">
         <v>9</v>
       </c>
@@ -9962,13 +9963,13 @@
         <v>16</v>
       </c>
       <c r="C558" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D558" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:4">
       <c r="A559">
         <v>9</v>
       </c>
@@ -9976,27 +9977,27 @@
         <v>16</v>
       </c>
       <c r="C559" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D559" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:4">
       <c r="A560">
         <v>9</v>
       </c>
       <c r="B560">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C560" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D560" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:4">
       <c r="A561">
         <v>9</v>
       </c>
@@ -10004,13 +10005,13 @@
         <v>17</v>
       </c>
       <c r="C561" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D561" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:4">
       <c r="A562">
         <v>9</v>
       </c>
@@ -10018,13 +10019,13 @@
         <v>17</v>
       </c>
       <c r="C562" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D562" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:4">
       <c r="A563">
         <v>9</v>
       </c>
@@ -10032,32 +10033,32 @@
         <v>17</v>
       </c>
       <c r="C563" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D563" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:4">
       <c r="A564">
         <v>9</v>
       </c>
       <c r="B564">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C564" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D564" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:4">
       <c r="A565">
         <v>9</v>
       </c>
       <c r="B565">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C565" t="s">
         <v>20</v>
@@ -10066,7 +10067,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:4">
       <c r="A566">
         <v>9</v>
       </c>
@@ -10074,38 +10075,18 @@
         <v>20</v>
       </c>
       <c r="C566" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D566" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
-      <c r="A567">
-        <v>9</v>
-      </c>
-      <c r="B567">
-        <v>20</v>
-      </c>
-      <c r="C567" t="s">
-        <v>29</v>
-      </c>
-      <c r="D567" t="s">
-        <v>588</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>